--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="global"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
   <si>
     <t>object_id</t>
   </si>
@@ -84,10 +84,13 @@
     <t>3600s</t>
   </si>
   <si>
+    <t>pull-sub-12</t>
+  </si>
+  <si>
     <t>bucket_name</t>
   </si>
   <si>
-    <t xml:space="preserve">storage_class </t>
+    <t>storage_class</t>
   </si>
   <si>
     <t>force_destroy</t>
@@ -201,13 +204,13 @@
     <t>PROJECT_ID</t>
   </si>
   <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>ZONE</t>
-  </si>
-  <si>
-    <t>CLUSTER_NAME</t>
+    <t>region</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>cluster_name</t>
   </si>
   <si>
     <t>db_instance_name</t>
@@ -273,7 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -311,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,20 +340,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,8 +666,8 @@
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="35.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -679,28 +676,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -711,28 +708,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -750,7 +747,7 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -763,13 +760,13 @@
     <col min="5" max="5" style="6" width="28.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -778,43 +775,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -825,40 +822,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -872,42 +869,42 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>46</v>
+      <c r="H3" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="10">
+        <v>40</v>
+      </c>
+      <c r="J3" s="9">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="10">
+        <v>43</v>
+      </c>
+      <c r="N3" s="9">
         <v>3600</v>
       </c>
       <c r="O3" s="3">
@@ -919,42 +916,42 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>46</v>
+      <c r="H4" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="10">
+        <v>40</v>
+      </c>
+      <c r="J4" s="9">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="10">
+        <v>43</v>
+      </c>
+      <c r="N4" s="9">
         <v>3600</v>
       </c>
       <c r="O4" s="3">
@@ -966,42 +963,42 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>46</v>
+      <c r="H5" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="10">
+        <v>40</v>
+      </c>
+      <c r="J5" s="9">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="10">
+        <v>43</v>
+      </c>
+      <c r="N5" s="9">
         <v>3600</v>
       </c>
       <c r="O5" s="3">
@@ -1013,42 +1010,42 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>46</v>
+      <c r="H6" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="10">
+        <v>40</v>
+      </c>
+      <c r="J6" s="9">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="10">
+        <v>43</v>
+      </c>
+      <c r="N6" s="9">
         <v>3600</v>
       </c>
       <c r="O6" s="3">
@@ -1060,42 +1057,42 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>46</v>
+      <c r="H7" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="10">
+        <v>40</v>
+      </c>
+      <c r="J7" s="9">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="10">
+        <v>43</v>
+      </c>
+      <c r="N7" s="9">
         <v>3600</v>
       </c>
       <c r="O7" s="3">
@@ -1107,42 +1104,42 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>46</v>
+      <c r="H8" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="10">
+        <v>40</v>
+      </c>
+      <c r="J8" s="9">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="10">
+        <v>43</v>
+      </c>
+      <c r="N8" s="9">
         <v>3600</v>
       </c>
       <c r="O8" s="3">
@@ -1154,42 +1151,42 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>46</v>
+      <c r="H9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="10">
+        <v>40</v>
+      </c>
+      <c r="J9" s="9">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="10">
+        <v>43</v>
+      </c>
+      <c r="N9" s="9">
         <v>3600</v>
       </c>
       <c r="O9" s="3">
@@ -1201,42 +1198,42 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>46</v>
+      <c r="H10" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="10">
+        <v>40</v>
+      </c>
+      <c r="J10" s="9">
         <v>30</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="10">
+        <v>43</v>
+      </c>
+      <c r="N10" s="9">
         <v>3600</v>
       </c>
       <c r="O10" s="3">
@@ -1244,96 +1241,96 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="11">
+        <v>46</v>
+      </c>
+      <c r="G11" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="9">
+        <v>30</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="9">
+        <v>3600</v>
+      </c>
+      <c r="O11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="9">
         <v>30</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="10">
+      <c r="M12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="9">
         <v>3600</v>
       </c>
-      <c r="O11" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="10">
-        <v>30</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="10">
-        <v>3600</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="9">
         <v>11</v>
       </c>
     </row>
@@ -1347,9 +1344,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -1387,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1410,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1433,7 +1430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1500,6 +1497,29 @@
       </c>
       <c r="G6" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>object_id</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>pull-sub-12</t>
+  </si>
+  <si>
+    <t>pull-sub-13</t>
   </si>
   <si>
     <t>bucket_name</t>
@@ -676,28 +679,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -708,28 +711,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -775,43 +778,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -822,40 +825,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -869,40 +872,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="9">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="9">
         <v>3600</v>
@@ -916,40 +919,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="9">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="9">
         <v>3600</v>
@@ -963,40 +966,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="9">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" s="9">
         <v>3600</v>
@@ -1010,40 +1013,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="9">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" s="9">
         <v>3600</v>
@@ -1057,40 +1060,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="9">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7" s="9">
         <v>3600</v>
@@ -1104,40 +1107,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="9">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N8" s="9">
         <v>3600</v>
@@ -1151,40 +1154,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" s="9">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N9" s="9">
         <v>3600</v>
@@ -1198,40 +1201,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10" s="9">
         <v>30</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N10" s="9">
         <v>3600</v>
@@ -1245,40 +1248,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" s="9">
         <v>30</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N11" s="9">
         <v>3600</v>
@@ -1292,40 +1295,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" s="9">
         <v>30</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N12" s="9">
         <v>3600</v>
@@ -1344,7 +1347,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1499,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1519,6 +1522,29 @@
         <v>21</v>
       </c>
       <c r="G7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3">
         <v>6</v>
       </c>
     </row>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -87,7 +87,7 @@
     <t>pull-sub-12</t>
   </si>
   <si>
-    <t>pull-sub-13</t>
+    <t/>
   </si>
   <si>
     <t>bucket_name</t>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -329,6 +329,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -662,26 +665,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -696,10 +699,10 @@
       <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -728,10 +731,10 @@
       <c r="G2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J2" s="3">
@@ -756,21 +759,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -795,7 +798,7 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -842,7 +845,7 @@
       <c r="G2" s="3">
         <v>3600</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -889,13 +892,13 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="10">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -907,7 +910,7 @@
       <c r="M3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="10">
         <v>3600</v>
       </c>
       <c r="O3" s="3">
@@ -936,13 +939,13 @@
       <c r="G4" s="3">
         <v>86400</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="10">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -954,7 +957,7 @@
       <c r="M4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="10">
         <v>3600</v>
       </c>
       <c r="O4" s="3">
@@ -983,13 +986,13 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1001,7 +1004,7 @@
       <c r="M5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="10">
         <v>3600</v>
       </c>
       <c r="O5" s="3">
@@ -1030,13 +1033,13 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1048,7 +1051,7 @@
       <c r="M6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="10">
         <v>3600</v>
       </c>
       <c r="O6" s="3">
@@ -1077,13 +1080,13 @@
       <c r="G7" s="3">
         <v>7200</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1095,7 +1098,7 @@
       <c r="M7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="10">
         <v>3600</v>
       </c>
       <c r="O7" s="3">
@@ -1124,13 +1127,13 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -1142,7 +1145,7 @@
       <c r="M8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="10">
         <v>3600</v>
       </c>
       <c r="O8" s="3">
@@ -1171,13 +1174,13 @@
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1189,7 +1192,7 @@
       <c r="M9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="10">
         <v>3600</v>
       </c>
       <c r="O9" s="3">
@@ -1218,13 +1221,13 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <v>30</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1236,7 +1239,7 @@
       <c r="M10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="10">
         <v>3600</v>
       </c>
       <c r="O10" s="3">
@@ -1244,7 +1247,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1262,16 +1265,16 @@
       <c r="F11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>0</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <v>30</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -1283,15 +1286,15 @@
       <c r="M11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="10">
         <v>3600</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="10">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1309,16 +1312,16 @@
       <c r="F12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10">
         <v>30</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1330,10 +1333,10 @@
       <c r="M12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="10">
         <v>3600</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="10">
         <v>11</v>
       </c>
     </row>
@@ -1355,13 +1358,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1526,27 +1529,21 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>object_id</t>
   </si>
@@ -75,7 +75,7 @@
     <t>2400s</t>
   </si>
   <si>
-    <t>pull-sub-10</t>
+    <t>pull-sub-11</t>
   </si>
   <si>
     <t>topic-10</t>
@@ -84,16 +84,10 @@
     <t>3600s</t>
   </si>
   <si>
-    <t>pull-sub-12</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>bucket_name</t>
   </si>
   <si>
-    <t>storage_class</t>
+    <t xml:space="preserve">storage_class </t>
   </si>
   <si>
     <t>force_destroy</t>
@@ -165,21 +159,28 @@
     <t>false</t>
   </si>
   <si>
+    <t>not-applicable</t>
+  </si>
+  <si>
+    <t>project-dev-bucket-3</t>
+  </si>
+  <si>
     <t>{
-      environment = "dev"
-      team        = "platform"
+      project = "infra"
     }</t>
   </si>
   <si>
-    <t>project-dev-bucket-3</t>
-  </si>
-  <si>
     <t>project-dev-bucket-4</t>
   </si>
   <si>
     <t>ARCHIVE</t>
   </si>
   <si>
+    <t>{
+      environment = "archive"
+    }</t>
+  </si>
+  <si>
     <t>project-dev-bucket-5</t>
   </si>
   <si>
@@ -189,31 +190,52 @@
     <t>project-dev-bucket-6</t>
   </si>
   <si>
+    <t>{
+      managed = "yes"
+    }</t>
+  </si>
+  <si>
     <t>project-dev-bucket-7</t>
   </si>
   <si>
+    <t>https://myapp.com</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
     <t>project-dev-bucket-8</t>
   </si>
   <si>
+    <t>{
+      owner = "kranthi"
+    }</t>
+  </si>
+  <si>
     <t>project-dev-bucket-9</t>
   </si>
   <si>
     <t>project-dev-bucket-10</t>
   </si>
   <si>
-    <t>project-dev-bucket-11</t>
+    <t>{
+      environment = "cold-storage"
+    }</t>
   </si>
   <si>
     <t>PROJECT_ID</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>cluster_name</t>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>ZONE</t>
+  </si>
+  <si>
+    <t>CLUSTER_NAME</t>
   </si>
   <si>
     <t>db_instance_name</t>
@@ -279,14 +301,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -317,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -329,9 +352,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -346,14 +366,20 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,45 +691,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="12" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>61</v>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -714,28 +740,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -751,7 +777,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -759,21 +785,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -781,87 +807,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="98.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>40</v>
+      <c r="H2" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -870,148 +896,148 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="10">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="10">
-        <v>3600</v>
+        <v>46</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>48</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="10">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="J4" s="3">
+        <v>60</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="10">
-        <v>3600</v>
+        <v>46</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="O4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>48</v>
+      <c r="H5" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="10">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="10">
-        <v>3600</v>
+        <v>46</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="O5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1022,43 +1048,43 @@
         <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="10">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="10">
-        <v>3600</v>
+        <v>46</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="O6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1066,278 +1092,231 @@
         <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>48</v>
+      <c r="H7" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="10">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="J7" s="3">
+        <v>15</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="10">
-        <v>3600</v>
+        <v>46</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="O7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="10">
-        <v>30</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="10">
-        <v>3600</v>
+        <v>59</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1800</v>
       </c>
       <c r="O8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>48</v>
+      <c r="H9" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="10">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="10">
-        <v>3600</v>
+        <v>46</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="O9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="10">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="10">
-        <v>3600</v>
+        <v>46</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="O10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
-      <c r="A11" s="10">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="10">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>48</v>
+      <c r="H11" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="10">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="10">
-        <v>3600</v>
-      </c>
-      <c r="O11" s="10">
+        <v>46</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="3">
         <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="10">
-        <v>30</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="10">
-        <v>3600</v>
-      </c>
-      <c r="O12" s="10">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1329,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1358,13 +1337,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1390,7 +1369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1413,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1436,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1459,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1482,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1504,46 +1483,6 @@
       <c r="G6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
   <si>
     <t>object_id</t>
   </si>
@@ -75,7 +75,7 @@
     <t>2400s</t>
   </si>
   <si>
-    <t>pull-sub-11</t>
+    <t>pull-sub-10</t>
   </si>
   <si>
     <t>topic-10</t>
@@ -84,10 +84,13 @@
     <t>3600s</t>
   </si>
   <si>
+    <t>pull-sub-12</t>
+  </si>
+  <si>
     <t>bucket_name</t>
   </si>
   <si>
-    <t xml:space="preserve">storage_class </t>
+    <t>storage_class</t>
   </si>
   <si>
     <t>force_destroy</t>
@@ -159,28 +162,21 @@
     <t>false</t>
   </si>
   <si>
-    <t>not-applicable</t>
+    <t>{
+      environment = "dev"
+      team        = "platform"
+    }</t>
   </si>
   <si>
     <t>project-dev-bucket-3</t>
   </si>
   <si>
-    <t>{
-      project = "infra"
-    }</t>
-  </si>
-  <si>
     <t>project-dev-bucket-4</t>
   </si>
   <si>
     <t>ARCHIVE</t>
   </si>
   <si>
-    <t>{
-      environment = "archive"
-    }</t>
-  </si>
-  <si>
     <t>project-dev-bucket-5</t>
   </si>
   <si>
@@ -190,52 +186,31 @@
     <t>project-dev-bucket-6</t>
   </si>
   <si>
-    <t>{
-      managed = "yes"
-    }</t>
-  </si>
-  <si>
     <t>project-dev-bucket-7</t>
   </si>
   <si>
-    <t>https://myapp.com</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>Authorization</t>
-  </si>
-  <si>
     <t>project-dev-bucket-8</t>
   </si>
   <si>
-    <t>{
-      owner = "kranthi"
-    }</t>
-  </si>
-  <si>
     <t>project-dev-bucket-9</t>
   </si>
   <si>
     <t>project-dev-bucket-10</t>
   </si>
   <si>
-    <t>{
-      environment = "cold-storage"
-    }</t>
+    <t>project-dev-bucket-11</t>
   </si>
   <si>
     <t>PROJECT_ID</t>
   </si>
   <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>ZONE</t>
-  </si>
-  <si>
-    <t>CLUSTER_NAME</t>
+    <t>region</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>cluster_name</t>
   </si>
   <si>
     <t>db_instance_name</t>
@@ -301,15 +276,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -340,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -366,20 +340,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,8 +666,8 @@
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="35.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -708,28 +676,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -740,28 +708,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -777,7 +745,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -792,13 +760,13 @@
     <col min="5" max="5" style="6" width="28.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -807,87 +775,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="98.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -896,101 +864,101 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>46</v>
+      <c r="H3" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="J3" s="9">
+        <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="N3" s="9">
+        <v>3600</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="3">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="J4" s="9">
+        <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="N4" s="9">
+        <v>3600</v>
       </c>
       <c r="O4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1001,322 +969,369 @@
         <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="J5" s="9">
+        <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="N5" s="9">
+        <v>3600</v>
       </c>
       <c r="O5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>46</v>
+      <c r="H6" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="J6" s="9">
+        <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="N6" s="9">
+        <v>3600</v>
       </c>
       <c r="O6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="3">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="J7" s="9">
+        <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="N7" s="9">
+        <v>3600</v>
       </c>
       <c r="O7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="75">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>46</v>
+      <c r="H8" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="J8" s="9">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1800</v>
+        <v>43</v>
+      </c>
+      <c r="N8" s="9">
+        <v>3600</v>
       </c>
       <c r="O8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="75">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="J9" s="9">
+        <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="N9" s="9">
+        <v>3600</v>
       </c>
       <c r="O9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>46</v>
+      <c r="H10" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="J10" s="9">
+        <v>30</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="N10" s="9">
+        <v>3600</v>
       </c>
       <c r="O10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="3">
+        <v>46</v>
+      </c>
+      <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="9">
+        <v>30</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="9">
+        <v>3600</v>
+      </c>
+      <c r="O11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="3">
-        <v>10</v>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="9">
+        <v>30</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="9">
+        <v>3600</v>
+      </c>
+      <c r="O12" s="9">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1344,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1369,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1392,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1438,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1461,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1482,6 +1497,29 @@
       </c>
       <c r="G6" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>object_id</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>pull-sub-12</t>
+  </si>
+  <si>
+    <t>pull-sub-11</t>
   </si>
   <si>
     <t>bucket_name</t>
@@ -259,7 +262,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,12 +280,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -314,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -339,12 +336,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -666,8 +657,8 @@
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="35.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -676,60 +667,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="171.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -760,7 +751,7 @@
     <col min="5" max="5" style="6" width="28.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -775,43 +766,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -822,40 +813,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -869,42 +860,42 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="9">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="9">
+        <v>44</v>
+      </c>
+      <c r="N3" s="3">
         <v>3600</v>
       </c>
       <c r="O3" s="3">
@@ -916,42 +907,42 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="9">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="9">
+        <v>44</v>
+      </c>
+      <c r="N4" s="3">
         <v>3600</v>
       </c>
       <c r="O4" s="3">
@@ -963,42 +954,42 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="9">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="9">
+        <v>44</v>
+      </c>
+      <c r="N5" s="3">
         <v>3600</v>
       </c>
       <c r="O5" s="3">
@@ -1010,42 +1001,42 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="9">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="9">
+        <v>44</v>
+      </c>
+      <c r="N6" s="3">
         <v>3600</v>
       </c>
       <c r="O6" s="3">
@@ -1057,42 +1048,42 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="9">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="9">
+        <v>44</v>
+      </c>
+      <c r="N7" s="3">
         <v>3600</v>
       </c>
       <c r="O7" s="3">
@@ -1104,42 +1095,42 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="9">
+        <v>41</v>
+      </c>
+      <c r="J8" s="3">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="9">
+        <v>44</v>
+      </c>
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
       <c r="O8" s="3">
@@ -1151,42 +1142,42 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="9">
+        <v>41</v>
+      </c>
+      <c r="J9" s="3">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="9">
+        <v>44</v>
+      </c>
+      <c r="N9" s="3">
         <v>3600</v>
       </c>
       <c r="O9" s="3">
@@ -1198,42 +1189,42 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="9">
+        <v>41</v>
+      </c>
+      <c r="J10" s="3">
         <v>30</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="9">
+        <v>44</v>
+      </c>
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
       <c r="O10" s="3">
@@ -1241,96 +1232,96 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="9">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="3">
+        <v>30</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="3">
         <v>30</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="9">
+      <c r="M12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="3">
         <v>3600</v>
       </c>
-      <c r="O11" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="9">
-        <v>30</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="9">
-        <v>3600</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="O12" s="3">
         <v>11</v>
       </c>
     </row>
@@ -1344,7 +1335,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1499,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1520,6 +1511,29 @@
       </c>
       <c r="G7" s="3">
         <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="global"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>object_id</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>pull-sub-12</t>
-  </si>
-  <si>
-    <t>pull-sub-11</t>
   </si>
   <si>
     <t>bucket_name</t>
@@ -199,9 +196,6 @@
   </si>
   <si>
     <t>project-dev-bucket-10</t>
-  </si>
-  <si>
-    <t>project-dev-bucket-11</t>
   </si>
   <si>
     <t>PROJECT_ID</t>
@@ -667,28 +661,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -699,28 +693,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -736,9 +730,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -766,43 +760,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -813,40 +807,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -860,40 +854,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="3">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N3" s="3">
         <v>3600</v>
@@ -907,40 +901,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="3">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N4" s="3">
         <v>3600</v>
@@ -954,40 +948,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N5" s="3">
         <v>3600</v>
@@ -1001,40 +995,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N6" s="3">
         <v>3600</v>
@@ -1048,40 +1042,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N7" s="3">
         <v>3600</v>
@@ -1095,40 +1089,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N8" s="3">
         <v>3600</v>
@@ -1142,40 +1136,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="3">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N9" s="3">
         <v>3600</v>
@@ -1189,40 +1183,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="3">
+        <v>35</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="3">
-        <v>30</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N10" s="3">
         <v>3600</v>
@@ -1236,93 +1230,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3">
         <v>30</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N11" s="3">
         <v>3600</v>
       </c>
       <c r="O11" s="3">
         <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="3">
-        <v>30</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O12" s="3">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1335,9 +1282,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -1481,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>21</v>
@@ -1490,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1511,29 +1458,6 @@
       </c>
       <c r="G7" s="3">
         <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="global"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
   <si>
     <t>object_id</t>
   </si>
@@ -66,31 +66,10 @@
     <t>1800s</t>
   </si>
   <si>
-    <t>pull-sub-9</t>
-  </si>
-  <si>
-    <t>topic-9</t>
-  </si>
-  <si>
-    <t>2400s</t>
-  </si>
-  <si>
-    <t>pull-sub-10</t>
-  </si>
-  <si>
-    <t>topic-10</t>
-  </si>
-  <si>
-    <t>3600s</t>
-  </si>
-  <si>
-    <t>pull-sub-12</t>
-  </si>
-  <si>
     <t>bucket_name</t>
   </si>
   <si>
-    <t>storage_class</t>
+    <t xml:space="preserve">storage_class </t>
   </si>
   <si>
     <t>force_destroy</t>
@@ -162,21 +141,28 @@
     <t>false</t>
   </si>
   <si>
+    <t>not-applicable</t>
+  </si>
+  <si>
+    <t>project-dev-bucket-3</t>
+  </si>
+  <si>
     <t>{
-      environment = "dev"
-      team        = "platform"
+      project = "infra"
     }</t>
   </si>
   <si>
-    <t>project-dev-bucket-3</t>
-  </si>
-  <si>
     <t>project-dev-bucket-4</t>
   </si>
   <si>
     <t>ARCHIVE</t>
   </si>
   <si>
+    <t>{
+      environment = "archive"
+    }</t>
+  </si>
+  <si>
     <t>project-dev-bucket-5</t>
   </si>
   <si>
@@ -186,16 +172,29 @@
     <t>project-dev-bucket-6</t>
   </si>
   <si>
+    <t>{
+      managed = "yes"
+    }</t>
+  </si>
+  <si>
     <t>project-dev-bucket-7</t>
   </si>
   <si>
+    <t>https://myapp.com</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
     <t>project-dev-bucket-8</t>
   </si>
   <si>
-    <t>project-dev-bucket-9</t>
-  </si>
-  <si>
-    <t>project-dev-bucket-10</t>
+    <t>{
+      owner = "kranthi"
+    }</t>
   </si>
   <si>
     <t>PROJECT_ID</t>
@@ -222,7 +221,7 @@
     <t>push_subscriptions</t>
   </si>
   <si>
-    <t>devops-ai-labs-1</t>
+    <t>nice-virtue-463917-m0</t>
   </si>
   <si>
     <t>asia-south1</t>
@@ -256,7 +255,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +272,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -305,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -332,7 +338,19 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +656,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -651,8 +669,8 @@
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="35.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -661,60 +679,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="171.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -730,28 +748,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="29.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="28.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -760,87 +778,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="98.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="95.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -849,427 +867,333 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>47</v>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="3">
-        <v>30</v>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="3">
-        <v>3600</v>
+        <v>40</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="57">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3600</v>
+        <v>40</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="O4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="69.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3">
-        <v>30</v>
+      <c r="J5" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="3">
-        <v>3600</v>
+        <v>40</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="O5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>47</v>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="3">
-        <v>30</v>
+      <c r="J6" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="3">
-        <v>3600</v>
+        <v>40</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="O6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J7" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="3">
-        <v>3600</v>
+        <v>40</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="O7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>47</v>
+      <c r="H8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="3">
-        <v>30</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>41</v>
+      <c r="J8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N8" s="3">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="O8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="57">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="3">
-        <v>30</v>
+      <c r="J9" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3600</v>
+        <v>40</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="O9" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="75">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="3">
-        <v>35</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="3">
-        <v>30</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O11" s="3">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1206,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1322,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1345,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1368,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1389,75 +1313,6 @@
       </c>
       <c r="G4" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3">
-        <v>120</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="3">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="global"/>
@@ -105,7 +105,7 @@
     <t>max_age_seconds</t>
   </si>
   <si>
-    <t>project-dev-bucket-1</t>
+    <t>project-sit-bucket-1</t>
   </si>
   <si>
     <t>STANDARD</t>
@@ -132,7 +132,7 @@
     <t>Content-Type</t>
   </si>
   <si>
-    <t>project-dev-bucket-2</t>
+    <t>project-sit-bucket-2</t>
   </si>
   <si>
     <t>NEARLINE</t>
@@ -144,7 +144,7 @@
     <t>not-applicable</t>
   </si>
   <si>
-    <t>project-dev-bucket-3</t>
+    <t>project-sit-bucket-3</t>
   </si>
   <si>
     <t>{
@@ -152,7 +152,7 @@
     }</t>
   </si>
   <si>
-    <t>project-dev-bucket-4</t>
+    <t>project-sit-bucket-4</t>
   </si>
   <si>
     <t>ARCHIVE</t>
@@ -163,13 +163,13 @@
     }</t>
   </si>
   <si>
-    <t>project-dev-bucket-5</t>
+    <t>project-sit-bucket-5</t>
   </si>
   <si>
     <t>COLDLINE</t>
   </si>
   <si>
-    <t>project-dev-bucket-6</t>
+    <t>project-sit-bucket-6</t>
   </si>
   <si>
     <t>{
@@ -177,7 +177,7 @@
     }</t>
   </si>
   <si>
-    <t>project-dev-bucket-7</t>
+    <t>project-sit-bucket-7</t>
   </si>
   <si>
     <t>https://myapp.com</t>
@@ -189,7 +189,7 @@
     <t>Authorization</t>
   </si>
   <si>
-    <t>project-dev-bucket-8</t>
+    <t>project-sit-bucket-8</t>
   </si>
   <si>
     <t>{
@@ -255,7 +255,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +268,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -337,17 +343,17 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -656,7 +662,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -706,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="168">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -750,7 +756,7 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="global"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>object_id</t>
   </si>
@@ -73,18 +73,6 @@
   </si>
   <si>
     <t>2400s</t>
-  </si>
-  <si>
-    <t>pull-sub-10</t>
-  </si>
-  <si>
-    <t>topic-10</t>
-  </si>
-  <si>
-    <t>3600s</t>
-  </si>
-  <si>
-    <t>pull-sub-12</t>
   </si>
   <si>
     <t>bucket_name</t>
@@ -222,7 +210,7 @@
     <t>push_subscriptions</t>
   </si>
   <si>
-    <t>devops-ai-labs-1</t>
+    <t>nice-virtue-463917-m0</t>
   </si>
   <si>
     <t>asia-south1</t>
@@ -638,7 +626,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -661,28 +649,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -693,28 +681,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -732,7 +720,7 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -760,43 +748,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -807,40 +795,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -854,40 +842,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J3" s="3">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N3" s="3">
         <v>3600</v>
@@ -901,40 +889,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J4" s="3">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3">
         <v>3600</v>
@@ -948,40 +936,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J5" s="3">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3">
         <v>3600</v>
@@ -995,40 +983,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J6" s="3">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N6" s="3">
         <v>3600</v>
@@ -1042,40 +1030,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J7" s="3">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N7" s="3">
         <v>3600</v>
@@ -1089,40 +1077,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N8" s="3">
         <v>3600</v>
@@ -1136,40 +1124,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J9" s="3">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N9" s="3">
         <v>3600</v>
@@ -1183,40 +1171,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J10" s="3">
         <v>35</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N10" s="3">
         <v>3600</v>
@@ -1230,40 +1218,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3">
         <v>30</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N11" s="3">
         <v>3600</v>
@@ -1282,7 +1270,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1414,52 +1402,6 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3">
-        <v>120</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="3">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="global"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>object_id</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>2400s</t>
+  </si>
+  <si>
+    <t>pull-sub-10</t>
+  </si>
+  <si>
+    <t>topic-10</t>
   </si>
   <si>
     <t>bucket_name</t>
@@ -626,7 +632,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -649,28 +655,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -681,28 +687,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -748,43 +754,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -795,40 +801,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -842,40 +848,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3" s="3">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" s="3">
         <v>3600</v>
@@ -889,40 +895,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" s="3">
         <v>3600</v>
@@ -936,40 +942,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" s="3">
         <v>3600</v>
@@ -983,40 +989,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" s="3">
         <v>3600</v>
@@ -1030,40 +1036,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" s="3">
         <v>3600</v>
@@ -1077,40 +1083,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" s="3">
         <v>3600</v>
@@ -1124,40 +1130,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" s="3">
         <v>3600</v>
@@ -1171,40 +1177,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3">
         <v>35</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" s="3">
         <v>3600</v>
@@ -1218,40 +1224,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J11" s="3">
         <v>30</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" s="3">
         <v>3600</v>
@@ -1270,9 +1276,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -1379,7 +1385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1392,13 +1398,34 @@
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3">
-        <v>30</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3">
         <v>4</v>
       </c>
     </row>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -1398,7 +1398,9 @@
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>60</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1410,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -1426,7 +1428,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>object_id</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>topic-10</t>
+  </si>
+  <si>
+    <t>pull-sub-11</t>
+  </si>
+  <si>
+    <t>2700s</t>
   </si>
   <si>
     <t>bucket_name</t>
@@ -655,28 +661,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -687,28 +693,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -754,43 +760,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -801,40 +807,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -848,40 +854,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" s="3">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" s="3">
         <v>3600</v>
@@ -895,40 +901,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4" s="3">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N4" s="3">
         <v>3600</v>
@@ -942,40 +948,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N5" s="3">
         <v>3600</v>
@@ -989,40 +995,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N6" s="3">
         <v>3600</v>
@@ -1036,40 +1042,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N7" s="3">
         <v>3600</v>
@@ -1083,40 +1089,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N8" s="3">
         <v>3600</v>
@@ -1130,40 +1136,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9" s="3">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N9" s="3">
         <v>3600</v>
@@ -1177,40 +1183,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3">
         <v>35</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N10" s="3">
         <v>3600</v>
@@ -1224,40 +1230,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3">
         <v>30</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N11" s="3">
         <v>3600</v>
@@ -1276,7 +1282,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1385,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1429,6 +1435,29 @@
       </c>
       <c r="G6" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>object_id</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>topic-10</t>
-  </si>
-  <si>
-    <t>pull-sub-11</t>
-  </si>
-  <si>
-    <t>2700s</t>
   </si>
   <si>
     <t>bucket_name</t>
@@ -661,28 +655,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -693,28 +687,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -760,43 +754,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -807,40 +801,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -854,40 +848,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="3">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N3" s="3">
         <v>3600</v>
@@ -901,40 +895,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N4" s="3">
         <v>3600</v>
@@ -948,40 +942,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N5" s="3">
         <v>3600</v>
@@ -995,40 +989,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N6" s="3">
         <v>3600</v>
@@ -1042,40 +1036,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N7" s="3">
         <v>3600</v>
@@ -1089,40 +1083,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N8" s="3">
         <v>3600</v>
@@ -1136,40 +1130,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N9" s="3">
         <v>3600</v>
@@ -1183,40 +1177,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3">
         <v>35</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N10" s="3">
         <v>3600</v>
@@ -1230,40 +1224,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="3">
         <v>30</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N11" s="3">
         <v>3600</v>
@@ -1282,7 +1276,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1405,7 +1399,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
@@ -1414,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1428,36 +1422,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="73">
   <si>
     <t>object_id</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>topic-10</t>
+  </si>
+  <si>
+    <t>pull-sub-11</t>
   </si>
   <si>
     <t>bucket_name</t>
@@ -655,28 +658,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -687,28 +690,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -754,43 +757,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -801,40 +804,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -848,40 +851,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3">
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="3">
         <v>3600</v>
@@ -895,40 +898,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3">
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="3">
         <v>3600</v>
@@ -942,40 +945,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3">
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="3">
         <v>3600</v>
@@ -989,40 +992,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3">
         <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" s="3">
         <v>3600</v>
@@ -1036,40 +1039,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" s="3">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="3">
         <v>3600</v>
@@ -1083,40 +1086,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N8" s="3">
         <v>3600</v>
@@ -1130,40 +1133,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" s="3">
         <v>30</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N9" s="3">
         <v>3600</v>
@@ -1177,40 +1180,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" s="3">
         <v>35</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N10" s="3">
         <v>3600</v>
@@ -1224,40 +1227,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" s="3">
         <v>30</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N11" s="3">
         <v>3600</v>
@@ -1276,7 +1279,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1408,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1429,6 +1432,29 @@
       </c>
       <c r="G6" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>120</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/infra_sheet.xlsx
+++ b/dataset/infra_sheet.xlsx
@@ -1379,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
